--- a/app/src/main/assets/ErrorAnalyze.xlsx
+++ b/app/src/main/assets/ErrorAnalyze.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E556B8-5202-46F6-8DF4-6B3E16D9EE25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CAC00A-66E2-4F84-B55D-F00CAC8B9A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21806" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>题目内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>kotlin是编译型语言吗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,7 +111,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解决办法</t>
+    <t>kotlin是Google开发的吗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -444,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -457,7 +453,7 @@
     <col min="5" max="5" width="43.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,16 +464,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -485,80 +478,80 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
